--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.77442995856911</v>
+        <v>3.7754575</v>
       </c>
       <c r="H2">
-        <v>3.77442995856911</v>
+        <v>7.550915</v>
       </c>
       <c r="I2">
-        <v>0.1857066246448638</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J2">
-        <v>0.1857066246448638</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42566915086374</v>
+        <v>2.442884</v>
       </c>
       <c r="N2">
-        <v>2.42566915086374</v>
+        <v>4.885768000000001</v>
       </c>
       <c r="O2">
-        <v>0.1978539116443868</v>
+        <v>0.1282605310873426</v>
       </c>
       <c r="P2">
-        <v>0.1978539116443868</v>
+        <v>0.09027715775239338</v>
       </c>
       <c r="Q2">
-        <v>9.155518312596993</v>
+        <v>9.223004719430001</v>
       </c>
       <c r="R2">
-        <v>9.155518312596993</v>
+        <v>36.89201887772001</v>
       </c>
       <c r="S2">
-        <v>0.03674278210426218</v>
+        <v>0.0219126666419856</v>
       </c>
       <c r="T2">
-        <v>0.03674278210426218</v>
+        <v>0.01106355141864527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.77442995856911</v>
+        <v>3.7754575</v>
       </c>
       <c r="H3">
-        <v>3.77442995856911</v>
+        <v>7.550915</v>
       </c>
       <c r="I3">
-        <v>0.1857066246448638</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J3">
-        <v>0.1857066246448638</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.4496895432831</v>
+        <v>1.769787666666667</v>
       </c>
       <c r="N3">
-        <v>1.4496895432831</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O3">
-        <v>0.118246442102952</v>
+        <v>0.09292046042239234</v>
       </c>
       <c r="P3">
-        <v>0.118246442102952</v>
+        <v>0.09810416727026754</v>
       </c>
       <c r="Q3">
-        <v>5.471751642792103</v>
+        <v>6.681758119524166</v>
       </c>
       <c r="R3">
-        <v>5.471751642792103</v>
+        <v>40.090548717145</v>
       </c>
       <c r="S3">
-        <v>0.02195914763920353</v>
+        <v>0.01587499331395358</v>
       </c>
       <c r="T3">
-        <v>0.02195914763920353</v>
+        <v>0.01202275886836066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.77442995856911</v>
+        <v>3.7754575</v>
       </c>
       <c r="H4">
-        <v>3.77442995856911</v>
+        <v>7.550915</v>
       </c>
       <c r="I4">
-        <v>0.1857066246448638</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J4">
-        <v>0.1857066246448638</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.50880889309146</v>
+        <v>4.649226</v>
       </c>
       <c r="N4">
-        <v>7.50880889309146</v>
+        <v>13.947678</v>
       </c>
       <c r="O4">
-        <v>0.6124690214901276</v>
+        <v>0.2441017239889743</v>
       </c>
       <c r="P4">
-        <v>0.6124690214901276</v>
+        <v>0.2577193037175704</v>
       </c>
       <c r="Q4">
-        <v>28.34147323925456</v>
+        <v>17.552955170895</v>
       </c>
       <c r="R4">
-        <v>28.34147323925456</v>
+        <v>105.31773102537</v>
       </c>
       <c r="S4">
-        <v>0.1137395546804742</v>
+        <v>0.04170355181877326</v>
       </c>
       <c r="T4">
-        <v>0.1137395546804742</v>
+        <v>0.03158374542624771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.77442995856911</v>
+        <v>3.7754575</v>
       </c>
       <c r="H5">
-        <v>3.77442995856911</v>
+        <v>7.550915</v>
       </c>
       <c r="I5">
-        <v>0.1857066246448638</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J5">
-        <v>0.1857066246448638</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.875732309123225</v>
+        <v>8.546720333333333</v>
       </c>
       <c r="N5">
-        <v>0.875732309123225</v>
+        <v>25.640161</v>
       </c>
       <c r="O5">
-        <v>0.07143062476253363</v>
+        <v>0.4487347287093137</v>
       </c>
       <c r="P5">
-        <v>0.07143062476253363</v>
+        <v>0.4737680666363536</v>
       </c>
       <c r="Q5">
-        <v>3.305390263241605</v>
+        <v>32.26777938288583</v>
       </c>
       <c r="R5">
-        <v>3.305390263241605</v>
+        <v>193.606676297315</v>
       </c>
       <c r="S5">
-        <v>0.01326514022092395</v>
+        <v>0.07666407146086894</v>
       </c>
       <c r="T5">
-        <v>0.01326514022092395</v>
+        <v>0.05806072650315019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22991504304809</v>
+        <v>3.7754575</v>
       </c>
       <c r="H6">
-        <v>1.22991504304809</v>
+        <v>7.550915</v>
       </c>
       <c r="I6">
-        <v>0.06051334208119499</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J6">
-        <v>0.06051334208119499</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42566915086374</v>
+        <v>1.061385</v>
       </c>
       <c r="N6">
-        <v>2.42566915086374</v>
+        <v>3.184155000000001</v>
       </c>
       <c r="O6">
-        <v>0.1978539116443868</v>
+        <v>0.05572667543286507</v>
       </c>
       <c r="P6">
-        <v>0.1978539116443868</v>
+        <v>0.05883547136152845</v>
       </c>
       <c r="Q6">
-        <v>2.983366978105001</v>
+        <v>4.007213958637501</v>
       </c>
       <c r="R6">
-        <v>2.983366978105001</v>
+        <v>24.043283751825</v>
       </c>
       <c r="S6">
-        <v>0.01197280143743931</v>
+        <v>0.009520622216938621</v>
       </c>
       <c r="T6">
-        <v>0.01197280143743931</v>
+        <v>0.007210342891319529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.22991504304809</v>
+        <v>3.7754575</v>
       </c>
       <c r="H7">
-        <v>1.22991504304809</v>
+        <v>7.550915</v>
       </c>
       <c r="I7">
-        <v>0.06051334208119499</v>
+        <v>0.1708449704380497</v>
       </c>
       <c r="J7">
-        <v>0.06051334208119499</v>
+        <v>0.1225509496985904</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>1.4496895432831</v>
+        <v>0.5762615</v>
       </c>
       <c r="N7">
-        <v>1.4496895432831</v>
+        <v>1.152523</v>
       </c>
       <c r="O7">
-        <v>0.118246442102952</v>
+        <v>0.03025588035911188</v>
       </c>
       <c r="P7">
-        <v>0.118246442102952</v>
+        <v>0.0212958332618867</v>
       </c>
       <c r="Q7">
-        <v>1.7829949770334</v>
+        <v>2.17565080213625</v>
       </c>
       <c r="R7">
-        <v>1.7829949770334</v>
+        <v>8.702603208545</v>
       </c>
       <c r="S7">
-        <v>0.007155487400860152</v>
+        <v>0.005169064985529637</v>
       </c>
       <c r="T7">
-        <v>0.007155487400860152</v>
+        <v>0.002609824590867045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.22991504304809</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H8">
-        <v>1.22991504304809</v>
+        <v>3.981953</v>
       </c>
       <c r="I8">
-        <v>0.06051334208119499</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J8">
-        <v>0.06051334208119499</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.50880889309146</v>
+        <v>2.442884</v>
       </c>
       <c r="N8">
-        <v>7.50880889309146</v>
+        <v>4.885768000000001</v>
       </c>
       <c r="O8">
-        <v>0.6124690214901276</v>
+        <v>0.1282605310873426</v>
       </c>
       <c r="P8">
-        <v>0.6124690214901276</v>
+        <v>0.09027715775239338</v>
       </c>
       <c r="Q8">
-        <v>9.235197012986465</v>
+        <v>3.242483090817334</v>
       </c>
       <c r="R8">
-        <v>9.235197012986465</v>
+        <v>19.454898544904</v>
       </c>
       <c r="S8">
-        <v>0.03706254741156686</v>
+        <v>0.007703720557756201</v>
       </c>
       <c r="T8">
-        <v>0.03706254741156686</v>
+        <v>0.005834331569369911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.22991504304809</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H9">
-        <v>1.22991504304809</v>
+        <v>3.981953</v>
       </c>
       <c r="I9">
-        <v>0.06051334208119499</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J9">
-        <v>0.06051334208119499</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.875732309123225</v>
+        <v>1.769787666666667</v>
       </c>
       <c r="N9">
-        <v>0.875732309123225</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O9">
-        <v>0.07143062476253363</v>
+        <v>0.09292046042239234</v>
       </c>
       <c r="P9">
-        <v>0.07143062476253363</v>
+        <v>0.09810416727026754</v>
       </c>
       <c r="Q9">
-        <v>1.077076340673895</v>
+        <v>2.349070436215444</v>
       </c>
       <c r="R9">
-        <v>1.077076340673895</v>
+        <v>21.141633925939</v>
       </c>
       <c r="S9">
-        <v>0.004322505831328675</v>
+        <v>0.005581087612249855</v>
       </c>
       <c r="T9">
-        <v>0.004322505831328675</v>
+        <v>0.006340166820066883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.65353069794807</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H10">
-        <v>3.65353069794807</v>
+        <v>3.981953</v>
       </c>
       <c r="I10">
-        <v>0.179758231415041</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J10">
-        <v>0.179758231415041</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.42566915086374</v>
+        <v>4.649226</v>
       </c>
       <c r="N10">
-        <v>2.42566915086374</v>
+        <v>13.947678</v>
       </c>
       <c r="O10">
-        <v>0.1978539116443868</v>
+        <v>0.2441017239889743</v>
       </c>
       <c r="P10">
-        <v>0.1978539116443868</v>
+        <v>0.2577193037175704</v>
       </c>
       <c r="Q10">
-        <v>8.862256705746301</v>
+        <v>6.170999806126001</v>
       </c>
       <c r="R10">
-        <v>8.862256705746301</v>
+        <v>55.538998255134</v>
       </c>
       <c r="S10">
-        <v>0.03556586923574275</v>
+        <v>0.01466149760441127</v>
       </c>
       <c r="T10">
-        <v>0.03556586923574275</v>
+        <v>0.0166555960239631</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.65353069794807</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H11">
-        <v>3.65353069794807</v>
+        <v>3.981953</v>
       </c>
       <c r="I11">
-        <v>0.179758231415041</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J11">
-        <v>0.179758231415041</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.4496895432831</v>
+        <v>8.546720333333333</v>
       </c>
       <c r="N11">
-        <v>1.4496895432831</v>
+        <v>25.640161</v>
       </c>
       <c r="O11">
-        <v>0.118246442102952</v>
+        <v>0.4487347287093137</v>
       </c>
       <c r="P11">
-        <v>0.118246442102952</v>
+        <v>0.4737680666363536</v>
       </c>
       <c r="Q11">
-        <v>5.296485248879123</v>
+        <v>11.34421289049256</v>
       </c>
       <c r="R11">
-        <v>5.296485248879123</v>
+        <v>102.097916014433</v>
       </c>
       <c r="S11">
-        <v>0.02125577130354769</v>
+        <v>0.02695238297573398</v>
       </c>
       <c r="T11">
-        <v>0.02125577130354769</v>
+        <v>0.03061815476421049</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.65353069794807</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H12">
-        <v>3.65353069794807</v>
+        <v>3.981953</v>
       </c>
       <c r="I12">
-        <v>0.179758231415041</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J12">
-        <v>0.179758231415041</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.50880889309146</v>
+        <v>1.061385</v>
       </c>
       <c r="N12">
-        <v>7.50880889309146</v>
+        <v>3.184155000000001</v>
       </c>
       <c r="O12">
-        <v>0.6124690214901276</v>
+        <v>0.05572667543286507</v>
       </c>
       <c r="P12">
-        <v>0.6124690214901276</v>
+        <v>0.05883547136152845</v>
       </c>
       <c r="Q12">
-        <v>27.43366379593511</v>
+        <v>1.408795061635</v>
       </c>
       <c r="R12">
-        <v>27.43366379593511</v>
+        <v>12.679155554715</v>
       </c>
       <c r="S12">
-        <v>0.1100963480995661</v>
+        <v>0.003347114903611496</v>
       </c>
       <c r="T12">
-        <v>0.1100963480995661</v>
+        <v>0.003802353291901508</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.65353069794807</v>
+        <v>1.327317666666667</v>
       </c>
       <c r="H13">
-        <v>3.65353069794807</v>
+        <v>3.981953</v>
       </c>
       <c r="I13">
-        <v>0.179758231415041</v>
+        <v>0.06006306454875145</v>
       </c>
       <c r="J13">
-        <v>0.179758231415041</v>
+        <v>0.06462688585491311</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.875732309123225</v>
+        <v>0.5762615</v>
       </c>
       <c r="N13">
-        <v>0.875732309123225</v>
+        <v>1.152523</v>
       </c>
       <c r="O13">
-        <v>0.07143062476253363</v>
+        <v>0.03025588035911188</v>
       </c>
       <c r="P13">
-        <v>0.07143062476253363</v>
+        <v>0.0212958332618867</v>
       </c>
       <c r="Q13">
-        <v>3.199514874566651</v>
+        <v>0.7648820695698334</v>
       </c>
       <c r="R13">
-        <v>3.199514874566651</v>
+        <v>4.589292417419</v>
       </c>
       <c r="S13">
-        <v>0.01284024277618448</v>
+        <v>0.001817260894988638</v>
       </c>
       <c r="T13">
-        <v>0.01284024277618448</v>
+        <v>0.001376283385401214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.58658983817303</v>
+        <v>5.188097999999999</v>
       </c>
       <c r="H14">
-        <v>7.58658983817303</v>
+        <v>15.564294</v>
       </c>
       <c r="I14">
-        <v>0.3732696080936801</v>
+        <v>0.2347690179109961</v>
       </c>
       <c r="J14">
-        <v>0.3732696080936801</v>
+        <v>0.2526076655727249</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.42566915086374</v>
+        <v>2.442884</v>
       </c>
       <c r="N14">
-        <v>2.42566915086374</v>
+        <v>4.885768000000001</v>
       </c>
       <c r="O14">
-        <v>0.1978539116443868</v>
+        <v>0.1282605310873426</v>
       </c>
       <c r="P14">
-        <v>0.1978539116443868</v>
+        <v>0.09027715775239338</v>
       </c>
       <c r="Q14">
-        <v>18.40255693071265</v>
+        <v>12.673921594632</v>
       </c>
       <c r="R14">
-        <v>18.40255693071265</v>
+        <v>76.04352956779201</v>
       </c>
       <c r="S14">
-        <v>0.07385285205930188</v>
+        <v>0.03011159892011821</v>
       </c>
       <c r="T14">
-        <v>0.07385285205930188</v>
+        <v>0.02280470207437272</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.58658983817303</v>
+        <v>5.188097999999999</v>
       </c>
       <c r="H15">
-        <v>7.58658983817303</v>
+        <v>15.564294</v>
       </c>
       <c r="I15">
-        <v>0.3732696080936801</v>
+        <v>0.2347690179109961</v>
       </c>
       <c r="J15">
-        <v>0.3732696080936801</v>
+        <v>0.2526076655727249</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.4496895432831</v>
+        <v>1.769787666666667</v>
       </c>
       <c r="N15">
-        <v>1.4496895432831</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O15">
-        <v>0.118246442102952</v>
+        <v>0.09292046042239234</v>
       </c>
       <c r="P15">
-        <v>0.118246442102952</v>
+        <v>0.09810416727026754</v>
       </c>
       <c r="Q15">
-        <v>10.99819995757727</v>
+        <v>9.181831853857998</v>
       </c>
       <c r="R15">
-        <v>10.99819995757727</v>
+        <v>82.63648668472199</v>
       </c>
       <c r="S15">
-        <v>0.04413780310224093</v>
+        <v>0.02181484523720263</v>
       </c>
       <c r="T15">
-        <v>0.04413780310224093</v>
+        <v>0.02478186467709841</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.58658983817303</v>
+        <v>5.188097999999999</v>
       </c>
       <c r="H16">
-        <v>7.58658983817303</v>
+        <v>15.564294</v>
       </c>
       <c r="I16">
-        <v>0.3732696080936801</v>
+        <v>0.2347690179109961</v>
       </c>
       <c r="J16">
-        <v>0.3732696080936801</v>
+        <v>0.2526076655727249</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>7.50880889309146</v>
+        <v>4.649226</v>
       </c>
       <c r="N16">
-        <v>7.50880889309146</v>
+        <v>13.947678</v>
       </c>
       <c r="O16">
-        <v>0.6124690214901276</v>
+        <v>0.2441017239889743</v>
       </c>
       <c r="P16">
-        <v>0.6124690214901276</v>
+        <v>0.2577193037175704</v>
       </c>
       <c r="Q16">
-        <v>56.96625324511094</v>
+        <v>24.120640112148</v>
       </c>
       <c r="R16">
-        <v>56.96625324511094</v>
+        <v>217.085761009332</v>
       </c>
       <c r="S16">
-        <v>0.2286160716211397</v>
+        <v>0.05730752201127252</v>
       </c>
       <c r="T16">
-        <v>0.2286160716211397</v>
+        <v>0.06510187168512355</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.58658983817303</v>
+        <v>5.188097999999999</v>
       </c>
       <c r="H17">
-        <v>7.58658983817303</v>
+        <v>15.564294</v>
       </c>
       <c r="I17">
-        <v>0.3732696080936801</v>
+        <v>0.2347690179109961</v>
       </c>
       <c r="J17">
-        <v>0.3732696080936801</v>
+        <v>0.2526076655727249</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.875732309123225</v>
+        <v>8.546720333333333</v>
       </c>
       <c r="N17">
-        <v>0.875732309123225</v>
+        <v>25.640161</v>
       </c>
       <c r="O17">
-        <v>0.07143062476253363</v>
+        <v>0.4487347287093137</v>
       </c>
       <c r="P17">
-        <v>0.07143062476253363</v>
+        <v>0.4737680666363536</v>
       </c>
       <c r="Q17">
-        <v>6.643821837354061</v>
+        <v>44.34122266792599</v>
       </c>
       <c r="R17">
-        <v>6.643821837354061</v>
+        <v>399.071004011334</v>
       </c>
       <c r="S17">
-        <v>0.02666288131099765</v>
+        <v>0.1053490115616428</v>
       </c>
       <c r="T17">
-        <v>0.02666288131099765</v>
+        <v>0.1196774453359124</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.17730865000538</v>
+        <v>5.188097999999999</v>
       </c>
       <c r="H18">
-        <v>3.17730865000538</v>
+        <v>15.564294</v>
       </c>
       <c r="I18">
-        <v>0.156327517353406</v>
+        <v>0.2347690179109961</v>
       </c>
       <c r="J18">
-        <v>0.156327517353406</v>
+        <v>0.2526076655727249</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.42566915086374</v>
+        <v>1.061385</v>
       </c>
       <c r="N18">
-        <v>2.42566915086374</v>
+        <v>3.184155000000001</v>
       </c>
       <c r="O18">
-        <v>0.1978539116443868</v>
+        <v>0.05572667543286507</v>
       </c>
       <c r="P18">
-        <v>0.1978539116443868</v>
+        <v>0.05883547136152845</v>
       </c>
       <c r="Q18">
-        <v>7.707099575090566</v>
+        <v>5.506569395730001</v>
       </c>
       <c r="R18">
-        <v>7.707099575090566</v>
+        <v>49.55912456157</v>
       </c>
       <c r="S18">
-        <v>0.03093001080602714</v>
+        <v>0.01308289686281856</v>
       </c>
       <c r="T18">
-        <v>0.03093001080602714</v>
+        <v>0.01486229107350661</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.17730865000538</v>
+        <v>5.188097999999999</v>
       </c>
       <c r="H19">
-        <v>3.17730865000538</v>
+        <v>15.564294</v>
       </c>
       <c r="I19">
-        <v>0.156327517353406</v>
+        <v>0.2347690179109961</v>
       </c>
       <c r="J19">
-        <v>0.156327517353406</v>
+        <v>0.2526076655727249</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>1.4496895432831</v>
+        <v>0.5762615</v>
       </c>
       <c r="N19">
-        <v>1.4496895432831</v>
+        <v>1.152523</v>
       </c>
       <c r="O19">
-        <v>0.118246442102952</v>
+        <v>0.03025588035911188</v>
       </c>
       <c r="P19">
-        <v>0.118246442102952</v>
+        <v>0.0212958332618867</v>
       </c>
       <c r="Q19">
-        <v>4.606111125695743</v>
+        <v>2.989701135627</v>
       </c>
       <c r="R19">
-        <v>4.606111125695743</v>
+        <v>17.938206813762</v>
       </c>
       <c r="S19">
-        <v>0.01848517272982775</v>
+        <v>0.007103143317941291</v>
       </c>
       <c r="T19">
-        <v>0.01848517272982775</v>
+        <v>0.005379490726711187</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.17730865000538</v>
+        <v>7.677527666666667</v>
       </c>
       <c r="H20">
-        <v>3.17730865000538</v>
+        <v>23.032583</v>
       </c>
       <c r="I20">
-        <v>0.156327517353406</v>
+        <v>0.3474193491117236</v>
       </c>
       <c r="J20">
-        <v>0.156327517353406</v>
+        <v>0.3738175996765437</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.50880889309146</v>
+        <v>2.442884</v>
       </c>
       <c r="N20">
-        <v>7.50880889309146</v>
+        <v>4.885768000000001</v>
       </c>
       <c r="O20">
-        <v>0.6124690214901276</v>
+        <v>0.1282605310873426</v>
       </c>
       <c r="P20">
-        <v>0.6124690214901276</v>
+        <v>0.09027715775239338</v>
       </c>
       <c r="Q20">
-        <v>23.85780344725682</v>
+        <v>18.75530949645734</v>
       </c>
       <c r="R20">
-        <v>23.85780344725682</v>
+        <v>112.531856978744</v>
       </c>
       <c r="S20">
-        <v>0.09574576158542153</v>
+        <v>0.04456019022708856</v>
       </c>
       <c r="T20">
-        <v>0.09574576158542153</v>
+        <v>0.03374719041662037</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.17730865000538</v>
+        <v>7.677527666666667</v>
       </c>
       <c r="H21">
-        <v>3.17730865000538</v>
+        <v>23.032583</v>
       </c>
       <c r="I21">
-        <v>0.156327517353406</v>
+        <v>0.3474193491117236</v>
       </c>
       <c r="J21">
-        <v>0.156327517353406</v>
+        <v>0.3738175996765437</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.875732309123225</v>
+        <v>1.769787666666667</v>
       </c>
       <c r="N21">
-        <v>0.875732309123225</v>
+        <v>5.309362999999999</v>
       </c>
       <c r="O21">
-        <v>0.07143062476253363</v>
+        <v>0.09292046042239234</v>
       </c>
       <c r="P21">
-        <v>0.07143062476253363</v>
+        <v>0.09810416727026754</v>
       </c>
       <c r="Q21">
-        <v>2.782471840866408</v>
+        <v>13.58759377495878</v>
       </c>
       <c r="R21">
-        <v>2.782471840866408</v>
+        <v>122.288343974629</v>
       </c>
       <c r="S21">
-        <v>0.01116657223212961</v>
+        <v>0.03228236587910922</v>
       </c>
       <c r="T21">
-        <v>0.01116657223212961</v>
+        <v>0.03667306432723755</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.90291786773438</v>
+        <v>7.677527666666667</v>
       </c>
       <c r="H22">
-        <v>0.90291786773438</v>
+        <v>23.032583</v>
       </c>
       <c r="I22">
-        <v>0.04442467641181402</v>
+        <v>0.3474193491117236</v>
       </c>
       <c r="J22">
-        <v>0.04442467641181402</v>
+        <v>0.3738175996765437</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.42566915086374</v>
+        <v>4.649226</v>
       </c>
       <c r="N22">
-        <v>2.42566915086374</v>
+        <v>13.947678</v>
       </c>
       <c r="O22">
-        <v>0.1978539116443868</v>
+        <v>0.2441017239889743</v>
       </c>
       <c r="P22">
-        <v>0.1978539116443868</v>
+        <v>0.2577193037175704</v>
       </c>
       <c r="Q22">
-        <v>2.190180017526952</v>
+        <v>35.694561243586</v>
       </c>
       <c r="R22">
-        <v>2.190180017526952</v>
+        <v>321.251051192274</v>
       </c>
       <c r="S22">
-        <v>0.008789596001613524</v>
+        <v>0.08480566206529905</v>
       </c>
       <c r="T22">
-        <v>0.008789596001613524</v>
+        <v>0.0963400115060123</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.90291786773438</v>
+        <v>7.677527666666667</v>
       </c>
       <c r="H23">
-        <v>0.90291786773438</v>
+        <v>23.032583</v>
       </c>
       <c r="I23">
-        <v>0.04442467641181402</v>
+        <v>0.3474193491117236</v>
       </c>
       <c r="J23">
-        <v>0.04442467641181402</v>
+        <v>0.3738175996765437</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.4496895432831</v>
+        <v>8.546720333333333</v>
       </c>
       <c r="N23">
-        <v>1.4496895432831</v>
+        <v>25.640161</v>
       </c>
       <c r="O23">
-        <v>0.118246442102952</v>
+        <v>0.4487347287093137</v>
       </c>
       <c r="P23">
-        <v>0.118246442102952</v>
+        <v>0.4737680666363536</v>
       </c>
       <c r="Q23">
-        <v>1.308950591298004</v>
+        <v>65.61768181842922</v>
       </c>
       <c r="R23">
-        <v>1.308950591298004</v>
+        <v>590.5591363658631</v>
       </c>
       <c r="S23">
-        <v>0.005253059927271943</v>
+        <v>0.1558991273720156</v>
       </c>
       <c r="T23">
-        <v>0.005253059927271943</v>
+        <v>0.1771028414733985</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,861 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.90291786773438</v>
+        <v>7.677527666666667</v>
       </c>
       <c r="H24">
-        <v>0.90291786773438</v>
+        <v>23.032583</v>
       </c>
       <c r="I24">
-        <v>0.04442467641181402</v>
+        <v>0.3474193491117236</v>
       </c>
       <c r="J24">
-        <v>0.04442467641181402</v>
+        <v>0.3738175996765437</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.50880889309146</v>
+        <v>1.061385</v>
       </c>
       <c r="N24">
-        <v>7.50880889309146</v>
+        <v>3.184155000000001</v>
       </c>
       <c r="O24">
-        <v>0.6124690214901276</v>
+        <v>0.05572667543286507</v>
       </c>
       <c r="P24">
-        <v>0.6124690214901276</v>
+        <v>0.05883547136152845</v>
       </c>
       <c r="Q24">
-        <v>6.77983771497509</v>
+        <v>8.148812702485003</v>
       </c>
       <c r="R24">
-        <v>6.77983771497509</v>
+        <v>73.33931432236501</v>
       </c>
       <c r="S24">
-        <v>0.02720873809195928</v>
+        <v>0.01936052530704626</v>
       </c>
       <c r="T24">
-        <v>0.02720873809195928</v>
+        <v>0.02199373468020459</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.677527666666667</v>
+      </c>
+      <c r="H25">
+        <v>23.032583</v>
+      </c>
+      <c r="I25">
+        <v>0.3474193491117236</v>
+      </c>
+      <c r="J25">
+        <v>0.3738175996765437</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.5762615</v>
+      </c>
+      <c r="N25">
+        <v>1.152523</v>
+      </c>
+      <c r="O25">
+        <v>0.03025588035911188</v>
+      </c>
+      <c r="P25">
+        <v>0.0212958332618867</v>
+      </c>
+      <c r="Q25">
+        <v>4.424263609484833</v>
+      </c>
+      <c r="R25">
+        <v>26.545581656909</v>
+      </c>
+      <c r="S25">
+        <v>0.01051147826116483</v>
+      </c>
+      <c r="T25">
+        <v>0.007960757273070385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.90291786773438</v>
-      </c>
-      <c r="H25">
-        <v>0.90291786773438</v>
-      </c>
-      <c r="I25">
-        <v>0.04442467641181402</v>
-      </c>
-      <c r="J25">
-        <v>0.04442467641181402</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.875732309123225</v>
-      </c>
-      <c r="N25">
-        <v>0.875732309123225</v>
-      </c>
-      <c r="O25">
-        <v>0.07143062476253363</v>
-      </c>
-      <c r="P25">
-        <v>0.07143062476253363</v>
-      </c>
-      <c r="Q25">
-        <v>0.7907143492596472</v>
-      </c>
-      <c r="R25">
-        <v>0.7907143492596472</v>
-      </c>
-      <c r="S25">
-        <v>0.003173282390969266</v>
-      </c>
-      <c r="T25">
-        <v>0.003173282390969266</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H26">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J26">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.442884</v>
+      </c>
+      <c r="N26">
+        <v>4.885768000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1282605310873426</v>
+      </c>
+      <c r="P26">
+        <v>0.09027715775239338</v>
+      </c>
+      <c r="Q26">
+        <v>7.876066475434668</v>
+      </c>
+      <c r="R26">
+        <v>47.25639885260801</v>
+      </c>
+      <c r="S26">
+        <v>0.01871251553875216</v>
+      </c>
+      <c r="T26">
+        <v>0.01417172641862612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H27">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J27">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.769787666666667</v>
+      </c>
+      <c r="N27">
+        <v>5.309362999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.09292046042239234</v>
+      </c>
+      <c r="P27">
+        <v>0.09810416727026754</v>
+      </c>
+      <c r="Q27">
+        <v>5.705946459214222</v>
+      </c>
+      <c r="R27">
+        <v>51.353518132928</v>
+      </c>
+      <c r="S27">
+        <v>0.01355659098540574</v>
+      </c>
+      <c r="T27">
+        <v>0.01540041195021459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H28">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J28">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>4.649226</v>
+      </c>
+      <c r="N28">
+        <v>13.947678</v>
+      </c>
+      <c r="O28">
+        <v>0.2441017239889743</v>
+      </c>
+      <c r="P28">
+        <v>0.2577193037175704</v>
+      </c>
+      <c r="Q28">
+        <v>14.989501357952</v>
+      </c>
+      <c r="R28">
+        <v>134.905512221568</v>
+      </c>
+      <c r="S28">
+        <v>0.03561311702404638</v>
+      </c>
+      <c r="T28">
+        <v>0.04045682823889515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H29">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J29">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.546720333333333</v>
+      </c>
+      <c r="N29">
+        <v>25.640161</v>
+      </c>
+      <c r="O29">
+        <v>0.4487347287093137</v>
+      </c>
+      <c r="P29">
+        <v>0.4737680666363536</v>
+      </c>
+      <c r="Q29">
+        <v>27.55535567480178</v>
+      </c>
+      <c r="R29">
+        <v>247.998201073216</v>
+      </c>
+      <c r="S29">
+        <v>0.06546796206568506</v>
+      </c>
+      <c r="T29">
+        <v>0.07437220658482495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H30">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J30">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.061385</v>
+      </c>
+      <c r="N30">
+        <v>3.184155000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.05572667543286507</v>
+      </c>
+      <c r="P30">
+        <v>0.05883547136152845</v>
+      </c>
+      <c r="Q30">
+        <v>3.421995811520001</v>
+      </c>
+      <c r="R30">
+        <v>30.79796230368001</v>
+      </c>
+      <c r="S30">
+        <v>0.00813021957043333</v>
+      </c>
+      <c r="T30">
+        <v>0.009236004152162046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.224085333333333</v>
+      </c>
+      <c r="H31">
+        <v>9.672256000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.145894573959072</v>
+      </c>
+      <c r="J31">
+        <v>0.1569802015421825</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.5762615</v>
+      </c>
+      <c r="N31">
+        <v>1.152523</v>
+      </c>
+      <c r="O31">
+        <v>0.03025588035911188</v>
+      </c>
+      <c r="P31">
+        <v>0.0212958332618867</v>
+      </c>
+      <c r="Q31">
+        <v>1.857916250314667</v>
+      </c>
+      <c r="R31">
+        <v>11.147497501888</v>
+      </c>
+      <c r="S31">
+        <v>0.004414168774749281</v>
+      </c>
+      <c r="T31">
+        <v>0.003343024197459689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.9062475</v>
+      </c>
+      <c r="H32">
+        <v>1.812495</v>
+      </c>
+      <c r="I32">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J32">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.442884</v>
+      </c>
+      <c r="N32">
+        <v>4.885768000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1282605310873426</v>
+      </c>
+      <c r="P32">
+        <v>0.09027715775239338</v>
+      </c>
+      <c r="Q32">
+        <v>2.21385751779</v>
+      </c>
+      <c r="R32">
+        <v>8.855430071160001</v>
+      </c>
+      <c r="S32">
+        <v>0.005259839201641879</v>
+      </c>
+      <c r="T32">
+        <v>0.002655655854758988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.9062475</v>
+      </c>
+      <c r="H33">
+        <v>1.812495</v>
+      </c>
+      <c r="I33">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J33">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.769787666666667</v>
+      </c>
+      <c r="N33">
+        <v>5.309362999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.09292046042239234</v>
+      </c>
+      <c r="P33">
+        <v>0.09810416727026754</v>
+      </c>
+      <c r="Q33">
+        <v>1.6038656484475</v>
+      </c>
+      <c r="R33">
+        <v>9.623193890684998</v>
+      </c>
+      <c r="S33">
+        <v>0.003810577394471306</v>
+      </c>
+      <c r="T33">
+        <v>0.002885900627289454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.9062475</v>
+      </c>
+      <c r="H34">
+        <v>1.812495</v>
+      </c>
+      <c r="I34">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J34">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>4.649226</v>
+      </c>
+      <c r="N34">
+        <v>13.947678</v>
+      </c>
+      <c r="O34">
+        <v>0.2441017239889743</v>
+      </c>
+      <c r="P34">
+        <v>0.2577193037175704</v>
+      </c>
+      <c r="Q34">
+        <v>4.213349439435</v>
+      </c>
+      <c r="R34">
+        <v>25.28009663661</v>
+      </c>
+      <c r="S34">
+        <v>0.01001037346517177</v>
+      </c>
+      <c r="T34">
+        <v>0.007581250837328568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.9062475</v>
+      </c>
+      <c r="H35">
+        <v>1.812495</v>
+      </c>
+      <c r="I35">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J35">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.546720333333333</v>
+      </c>
+      <c r="N35">
+        <v>25.640161</v>
+      </c>
+      <c r="O35">
+        <v>0.4487347287093137</v>
+      </c>
+      <c r="P35">
+        <v>0.4737680666363536</v>
+      </c>
+      <c r="Q35">
+        <v>7.745443935282499</v>
+      </c>
+      <c r="R35">
+        <v>46.472663611695</v>
+      </c>
+      <c r="S35">
+        <v>0.01840217327336722</v>
+      </c>
+      <c r="T35">
+        <v>0.01393669197485698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.9062475</v>
+      </c>
+      <c r="H36">
+        <v>1.812495</v>
+      </c>
+      <c r="I36">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J36">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.061385</v>
+      </c>
+      <c r="N36">
+        <v>3.184155000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.05572667543286507</v>
+      </c>
+      <c r="P36">
+        <v>0.05883547136152845</v>
+      </c>
+      <c r="Q36">
+        <v>0.9618775027875002</v>
+      </c>
+      <c r="R36">
+        <v>5.771265016725001</v>
+      </c>
+      <c r="S36">
+        <v>0.002285296572016791</v>
+      </c>
+      <c r="T36">
+        <v>0.001730745272434161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.9062475</v>
+      </c>
+      <c r="H37">
+        <v>1.812495</v>
+      </c>
+      <c r="I37">
+        <v>0.04100902403140717</v>
+      </c>
+      <c r="J37">
+        <v>0.02941669765504533</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.5762615</v>
+      </c>
+      <c r="N37">
+        <v>1.152523</v>
+      </c>
+      <c r="O37">
+        <v>0.03025588035911188</v>
+      </c>
+      <c r="P37">
+        <v>0.0212958332618867</v>
+      </c>
+      <c r="Q37">
+        <v>0.52223554372125</v>
+      </c>
+      <c r="R37">
+        <v>2.088942174885</v>
+      </c>
+      <c r="S37">
+        <v>0.001240764124738199</v>
+      </c>
+      <c r="T37">
+        <v>0.0006264530883771789</v>
       </c>
     </row>
   </sheetData>
